--- a/Jogos_do_Dia/2023-08-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -2221,13 +2221,13 @@
         <v>348</v>
       </c>
       <c r="G2">
-        <v>2.43</v>
+        <v>2.26</v>
       </c>
       <c r="H2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -2242,10 +2242,10 @@
         <v>2.6</v>
       </c>
       <c r="N2">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="O2">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P2">
         <v>1.51</v>
@@ -2328,13 +2328,13 @@
         <v>349</v>
       </c>
       <c r="G3">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="H3">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I3">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -2349,10 +2349,10 @@
         <v>2.62</v>
       </c>
       <c r="N3">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="P3">
         <v>1.51</v>
@@ -2435,13 +2435,13 @@
         <v>350</v>
       </c>
       <c r="G4">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="H4">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I4">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -2456,10 +2456,10 @@
         <v>3.7</v>
       </c>
       <c r="N4">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O4">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="P4">
         <v>1.4</v>
@@ -2542,13 +2542,13 @@
         <v>351</v>
       </c>
       <c r="G5">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>4.6</v>
+        <v>4.15</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -2563,10 +2563,10 @@
         <v>2.9</v>
       </c>
       <c r="N5">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="O5">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -2649,13 +2649,13 @@
         <v>352</v>
       </c>
       <c r="G6">
-        <v>6.15</v>
+        <v>5.1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I6">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="J6">
         <v>1.01</v>
@@ -2670,10 +2670,10 @@
         <v>5.5</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O6">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P6">
         <v>1.21</v>
@@ -2756,13 +2756,13 @@
         <v>353</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="H7">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I7">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J7">
         <v>1.06</v>
@@ -2777,10 +2777,10 @@
         <v>3.4</v>
       </c>
       <c r="N7">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="O7">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="P7">
         <v>1.4</v>
@@ -2863,10 +2863,10 @@
         <v>354</v>
       </c>
       <c r="G8">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I8">
         <v>2.42</v>
@@ -2884,10 +2884,10 @@
         <v>3.8</v>
       </c>
       <c r="N8">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O8">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="P8">
         <v>1.39</v>
@@ -2970,13 +2970,13 @@
         <v>355</v>
       </c>
       <c r="G9">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="H9">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -2991,10 +2991,10 @@
         <v>3.5</v>
       </c>
       <c r="N9">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="P9">
         <v>1.41</v>
@@ -3077,13 +3077,13 @@
         <v>356</v>
       </c>
       <c r="G10">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="H10">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I10">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="J10">
         <v>1.05</v>
@@ -3098,10 +3098,10 @@
         <v>3.2</v>
       </c>
       <c r="N10">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="O10">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="P10">
         <v>1.37</v>
@@ -3184,13 +3184,13 @@
         <v>357</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="H11">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I11">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="J11">
         <v>1.02</v>
@@ -3205,10 +3205,10 @@
         <v>3.32</v>
       </c>
       <c r="N11">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="O11">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="P11">
         <v>1.38</v>
@@ -3291,13 +3291,13 @@
         <v>358</v>
       </c>
       <c r="G12">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I12">
-        <v>3.3</v>
+        <v>2.93</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -3312,10 +3312,10 @@
         <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="O12">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="P12">
         <v>1.37</v>
@@ -3398,10 +3398,10 @@
         <v>359</v>
       </c>
       <c r="G13">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
         <v>2.71</v>
@@ -3419,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O13">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="P13">
         <v>1.33</v>
@@ -3505,13 +3505,13 @@
         <v>360</v>
       </c>
       <c r="G14">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="H14">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J14">
         <v>1.05</v>
@@ -3526,10 +3526,10 @@
         <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="O14">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="P14">
         <v>1.4</v>
@@ -3612,13 +3612,13 @@
         <v>361</v>
       </c>
       <c r="G15">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="H15">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I15">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -3633,10 +3633,10 @@
         <v>4.75</v>
       </c>
       <c r="N15">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
         <v>1.25</v>
@@ -3719,13 +3719,13 @@
         <v>362</v>
       </c>
       <c r="G16">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="H16">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I16">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J16">
         <v>1.06</v>
@@ -3740,10 +3740,10 @@
         <v>3.2</v>
       </c>
       <c r="N16">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="O16">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="P16">
         <v>1.41</v>
@@ -3826,13 +3826,13 @@
         <v>363</v>
       </c>
       <c r="G17">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="J17">
         <v>1.08</v>
@@ -3847,10 +3847,10 @@
         <v>2.8</v>
       </c>
       <c r="N17">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="O17">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="P17">
         <v>1.5</v>
@@ -3933,13 +3933,13 @@
         <v>364</v>
       </c>
       <c r="G18">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="H18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I18">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
       <c r="J18">
         <v>1.06</v>
@@ -3954,10 +3954,10 @@
         <v>2.9</v>
       </c>
       <c r="N18">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="O18">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="P18">
         <v>1.44</v>
@@ -4040,13 +4040,13 @@
         <v>365</v>
       </c>
       <c r="G19">
-        <v>2.19</v>
+        <v>2.41</v>
       </c>
       <c r="H19">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J19">
         <v>1.04</v>
@@ -4061,10 +4061,10 @@
         <v>3.9</v>
       </c>
       <c r="N19">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="O19">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P19">
         <v>1.33</v>
@@ -4254,10 +4254,10 @@
         <v>367</v>
       </c>
       <c r="G21">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H21">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I21">
         <v>2.14</v>
@@ -4275,10 +4275,10 @@
         <v>3.3</v>
       </c>
       <c r="N21">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="O21">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="P21">
         <v>1.4</v>
@@ -4361,13 +4361,13 @@
         <v>368</v>
       </c>
       <c r="G22">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="H22">
         <v>3.3</v>
       </c>
       <c r="I22">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J22">
         <v>1.03</v>
@@ -4382,10 +4382,10 @@
         <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="P22">
         <v>1.42</v>
@@ -4468,13 +4468,13 @@
         <v>369</v>
       </c>
       <c r="G23">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="H23">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I23">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="J23">
         <v>1.04</v>
@@ -4489,10 +4489,10 @@
         <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O23">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P23">
         <v>1.35</v>
@@ -4578,10 +4578,10 @@
         <v>3.15</v>
       </c>
       <c r="H24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="J24">
         <v>1.08</v>
@@ -4590,16 +4590,16 @@
         <v>8</v>
       </c>
       <c r="L24">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M24">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N24">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="P24">
         <v>1.54</v>
@@ -4656,10 +4656,10 @@
         <v>2.57</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -4682,13 +4682,13 @@
         <v>371</v>
       </c>
       <c r="G25">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H25">
+        <v>3.15</v>
+      </c>
+      <c r="I25">
         <v>3.2</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
       </c>
       <c r="J25">
         <v>1.06</v>
@@ -4703,10 +4703,10 @@
         <v>3</v>
       </c>
       <c r="N25">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P25">
         <v>1.47</v>
@@ -4789,13 +4789,13 @@
         <v>372</v>
       </c>
       <c r="G26">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="H26">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I26">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J26">
         <v>1.03</v>
@@ -4810,10 +4810,10 @@
         <v>4.1</v>
       </c>
       <c r="N26">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O26">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="P26">
         <v>1.31</v>
@@ -4896,13 +4896,13 @@
         <v>373</v>
       </c>
       <c r="G27">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I27">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="J27">
         <v>1.04</v>
@@ -4917,10 +4917,10 @@
         <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="O27">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="P27">
         <v>1.34</v>
@@ -5003,10 +5003,10 @@
         <v>374</v>
       </c>
       <c r="G28">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="H28">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I28">
         <v>2.32</v>
@@ -5024,10 +5024,10 @@
         <v>4.1</v>
       </c>
       <c r="N28">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O28">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="P28">
         <v>1.31</v>
@@ -5110,13 +5110,13 @@
         <v>375</v>
       </c>
       <c r="G29">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="H29">
-        <v>6.05</v>
+        <v>5.8</v>
       </c>
       <c r="I29">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="J29">
         <v>1.02</v>
@@ -5134,7 +5134,7 @@
         <v>1.54</v>
       </c>
       <c r="O29">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="P29">
         <v>1.29</v>
@@ -5217,13 +5217,13 @@
         <v>376</v>
       </c>
       <c r="G30">
-        <v>4.45</v>
+        <v>3.2</v>
       </c>
       <c r="H30">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I30">
-        <v>1.65</v>
+        <v>1.97</v>
       </c>
       <c r="J30">
         <v>1.02</v>
@@ -5238,10 +5238,10 @@
         <v>5</v>
       </c>
       <c r="N30">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O30">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="P30">
         <v>1.29</v>
@@ -5324,13 +5324,13 @@
         <v>377</v>
       </c>
       <c r="G31">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="H31">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="J31">
         <v>1.01</v>
@@ -5345,10 +5345,10 @@
         <v>3.9</v>
       </c>
       <c r="N31">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="O31">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="P31">
         <v>1.3</v>
@@ -5431,13 +5431,13 @@
         <v>378</v>
       </c>
       <c r="G32">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="H32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I32">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="J32">
         <v>1.04</v>
@@ -5452,10 +5452,10 @@
         <v>4.33</v>
       </c>
       <c r="N32">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="O32">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="P32">
         <v>1.32</v>
@@ -5538,13 +5538,13 @@
         <v>379</v>
       </c>
       <c r="G33">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H33">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I33">
-        <v>2.83</v>
+        <v>2.55</v>
       </c>
       <c r="J33">
         <v>1.07</v>
@@ -5559,10 +5559,10 @@
         <v>3.08</v>
       </c>
       <c r="N33">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="P33">
         <v>1.44</v>
@@ -5645,13 +5645,13 @@
         <v>380</v>
       </c>
       <c r="G34">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="H34">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I34">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>1.04</v>
@@ -5666,10 +5666,10 @@
         <v>4.1</v>
       </c>
       <c r="N34">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="O34">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="P34">
         <v>1.32</v>
@@ -5752,13 +5752,13 @@
         <v>381</v>
       </c>
       <c r="G35">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="H35">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I35">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="J35">
         <v>1.05</v>
@@ -5773,10 +5773,10 @@
         <v>3.88</v>
       </c>
       <c r="N35">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O35">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P35">
         <v>1.35</v>
@@ -5859,13 +5859,13 @@
         <v>382</v>
       </c>
       <c r="G36">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="H36">
-        <v>4.08</v>
+        <v>3.94</v>
       </c>
       <c r="I36">
-        <v>6.44</v>
+        <v>5.71</v>
       </c>
       <c r="J36">
         <v>1.01</v>
@@ -5880,10 +5880,10 @@
         <v>3.55</v>
       </c>
       <c r="N36">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="O36">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="P36">
         <v>1.36</v>
@@ -5966,13 +5966,13 @@
         <v>383</v>
       </c>
       <c r="G37">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H37">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I37">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J37">
         <v>1.01</v>
@@ -5987,10 +5987,10 @@
         <v>3.6</v>
       </c>
       <c r="N37">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="O37">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="P37">
         <v>1.33</v>
@@ -6073,13 +6073,13 @@
         <v>384</v>
       </c>
       <c r="G38">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H38">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I38">
-        <v>2.72</v>
+        <v>2.59</v>
       </c>
       <c r="J38">
         <v>1.04</v>
@@ -6094,10 +6094,10 @@
         <v>4</v>
       </c>
       <c r="N38">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="O38">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P38">
         <v>1.31</v>
@@ -6180,13 +6180,13 @@
         <v>385</v>
       </c>
       <c r="G39">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="H39">
         <v>3.3</v>
       </c>
       <c r="I39">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="J39">
         <v>1.05</v>
@@ -6201,10 +6201,10 @@
         <v>3.75</v>
       </c>
       <c r="N39">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="P39">
         <v>1.35</v>
@@ -6287,13 +6287,13 @@
         <v>386</v>
       </c>
       <c r="G40">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H40">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I40">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="J40">
         <v>1.05</v>
@@ -6308,10 +6308,10 @@
         <v>3.75</v>
       </c>
       <c r="N40">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="O40">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P40">
         <v>1.35</v>
@@ -6359,10 +6359,10 @@
         <v>2.3</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG40">
         <v>1.57</v>
@@ -6394,13 +6394,13 @@
         <v>387</v>
       </c>
       <c r="G41">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="H41">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I41">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J41">
         <v>1.04</v>
@@ -6415,10 +6415,10 @@
         <v>3.75</v>
       </c>
       <c r="N41">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="O41">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="P41">
         <v>1.34</v>
@@ -6466,7 +6466,7 @@
         <v>2.15</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF41">
         <v>1.57</v>
@@ -6478,7 +6478,7 @@
         <v>2.38</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -6501,13 +6501,13 @@
         <v>388</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H42">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I42">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="J42">
         <v>1.04</v>
@@ -6522,10 +6522,10 @@
         <v>4</v>
       </c>
       <c r="N42">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O42">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="P42">
         <v>1.31</v>
@@ -6608,13 +6608,13 @@
         <v>389</v>
       </c>
       <c r="G43">
-        <v>3.65</v>
+        <v>2.81</v>
       </c>
       <c r="H43">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I43">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="J43">
         <v>1.05</v>
@@ -6629,10 +6629,10 @@
         <v>3.4</v>
       </c>
       <c r="N43">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="O43">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="P43">
         <v>1.38</v>
@@ -6715,13 +6715,13 @@
         <v>390</v>
       </c>
       <c r="G44">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H44">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I44">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J44">
         <v>1.06</v>
@@ -6736,10 +6736,10 @@
         <v>3.3</v>
       </c>
       <c r="N44">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="O44">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="P44">
         <v>1.41</v>
@@ -6787,7 +6787,7 @@
         <v>2.52</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF44">
         <v>1.45</v>
@@ -6822,13 +6822,13 @@
         <v>391</v>
       </c>
       <c r="G45">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="H45">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I45">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J45">
         <v>1.01</v>
@@ -6843,10 +6843,10 @@
         <v>3.5</v>
       </c>
       <c r="N45">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="O45">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="P45">
         <v>1.36</v>
@@ -6929,13 +6929,13 @@
         <v>392</v>
       </c>
       <c r="G46">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="H46">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I46">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="J46">
         <v>1.06</v>
@@ -6950,10 +6950,10 @@
         <v>3.5</v>
       </c>
       <c r="N46">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="O46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P46">
         <v>1.37</v>
@@ -7001,7 +7001,7 @@
         <v>1.69</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF46">
         <v>1.2</v>
@@ -7036,13 +7036,13 @@
         <v>393</v>
       </c>
       <c r="G47">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="H47">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I47">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="J47">
         <v>1.05</v>
@@ -7057,10 +7057,10 @@
         <v>3.5</v>
       </c>
       <c r="N47">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="O47">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="P47">
         <v>1.4</v>
@@ -7143,13 +7143,13 @@
         <v>394</v>
       </c>
       <c r="G48">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H48">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I48">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="J48">
         <v>1.03</v>
@@ -7164,10 +7164,10 @@
         <v>2.97</v>
       </c>
       <c r="N48">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="O48">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="P48">
         <v>1.43</v>
@@ -7357,13 +7357,13 @@
         <v>396</v>
       </c>
       <c r="G50">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="H50">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I50">
-        <v>4.05</v>
+        <v>4.9</v>
       </c>
       <c r="J50">
         <v>1.03</v>
@@ -7378,10 +7378,10 @@
         <v>4.33</v>
       </c>
       <c r="N50">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O50">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="P50">
         <v>1.33</v>
@@ -7464,13 +7464,13 @@
         <v>397</v>
       </c>
       <c r="G51">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="H51">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J51">
         <v>1.04</v>
@@ -7485,10 +7485,10 @@
         <v>3.6</v>
       </c>
       <c r="N51">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="O51">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="P51">
         <v>1.4</v>
@@ -7571,13 +7571,13 @@
         <v>398</v>
       </c>
       <c r="G52">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H52">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="I52">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="J52">
         <v>1.04</v>
@@ -7592,10 +7592,10 @@
         <v>4</v>
       </c>
       <c r="N52">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="O52">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P52">
         <v>1.33</v>
@@ -7678,13 +7678,13 @@
         <v>399</v>
       </c>
       <c r="G53">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="H53">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I53">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="J53">
         <v>1.03</v>
@@ -7699,10 +7699,10 @@
         <v>4.33</v>
       </c>
       <c r="N53">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="O53">
-        <v>2.31</v>
+        <v>2.16</v>
       </c>
       <c r="P53">
         <v>1.3</v>
@@ -7785,13 +7785,13 @@
         <v>400</v>
       </c>
       <c r="G54">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="H54">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="I54">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="J54">
         <v>1.03</v>
@@ -7806,10 +7806,10 @@
         <v>4.2</v>
       </c>
       <c r="N54">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="O54">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="P54">
         <v>1.33</v>
@@ -7892,13 +7892,13 @@
         <v>401</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="I55">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="J55">
         <v>1.01</v>
@@ -7913,10 +7913,10 @@
         <v>7</v>
       </c>
       <c r="N55">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O55">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="P55">
         <v>1.2</v>
@@ -7999,13 +7999,13 @@
         <v>402</v>
       </c>
       <c r="G56">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H56">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I56">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="J56">
         <v>1.05</v>
@@ -8020,10 +8020,10 @@
         <v>3.4</v>
       </c>
       <c r="N56">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="O56">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="P56">
         <v>1.4</v>
@@ -8106,13 +8106,13 @@
         <v>403</v>
       </c>
       <c r="G57">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="H57">
+        <v>3.2</v>
+      </c>
+      <c r="I57">
         <v>3.25</v>
-      </c>
-      <c r="I57">
-        <v>4.5</v>
       </c>
       <c r="J57">
         <v>1.07</v>
@@ -8127,10 +8127,10 @@
         <v>2.75</v>
       </c>
       <c r="N57">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="O57">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P57">
         <v>1.47</v>
@@ -8213,13 +8213,13 @@
         <v>404</v>
       </c>
       <c r="G58">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="H58">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I58">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="J58">
         <v>1.03</v>
@@ -8234,10 +8234,10 @@
         <v>3.75</v>
       </c>
       <c r="N58">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O58">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P58">
         <v>1.32</v>
@@ -8320,13 +8320,13 @@
         <v>405</v>
       </c>
       <c r="G59">
-        <v>2.43</v>
+        <v>2.09</v>
       </c>
       <c r="H59">
         <v>3.2</v>
       </c>
       <c r="I59">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="J59">
         <v>1.05</v>
@@ -8341,10 +8341,10 @@
         <v>3.4</v>
       </c>
       <c r="N59">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P59">
         <v>1.37</v>
@@ -8427,13 +8427,13 @@
         <v>406</v>
       </c>
       <c r="G60">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="H60">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I60">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="J60">
         <v>1.05</v>
@@ -8448,10 +8448,10 @@
         <v>3.3</v>
       </c>
       <c r="N60">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P60">
         <v>1.39</v>
@@ -8534,13 +8534,13 @@
         <v>407</v>
       </c>
       <c r="G61">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="H61">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="I61">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="J61">
         <v>1.05</v>
@@ -8555,10 +8555,10 @@
         <v>3.5</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O61">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="P61">
         <v>1.4</v>
@@ -8641,13 +8641,13 @@
         <v>408</v>
       </c>
       <c r="G62">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="H62">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I62">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>1.02</v>
@@ -8662,10 +8662,10 @@
         <v>5</v>
       </c>
       <c r="N62">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O62">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P62">
         <v>1.25</v>
@@ -8748,13 +8748,13 @@
         <v>409</v>
       </c>
       <c r="G63">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H63">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="I63">
-        <v>5.45</v>
+        <v>6.5</v>
       </c>
       <c r="J63">
         <v>1.02</v>
@@ -8769,10 +8769,10 @@
         <v>4</v>
       </c>
       <c r="N63">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="O63">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="P63">
         <v>1.3</v>
@@ -8855,13 +8855,13 @@
         <v>410</v>
       </c>
       <c r="G64">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H64">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I64">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J64">
         <v>1.05</v>
@@ -8876,10 +8876,10 @@
         <v>3.7</v>
       </c>
       <c r="N64">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="O64">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="P64">
         <v>1.36</v>
@@ -8962,13 +8962,13 @@
         <v>411</v>
       </c>
       <c r="G65">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="H65">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J65">
         <v>1.04</v>
@@ -8983,10 +8983,10 @@
         <v>3.75</v>
       </c>
       <c r="N65">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O65">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P65">
         <v>1.34</v>
@@ -9069,10 +9069,10 @@
         <v>412</v>
       </c>
       <c r="G66">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="H66">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I66">
         <v>3.3</v>
@@ -9090,10 +9090,10 @@
         <v>3.3</v>
       </c>
       <c r="N66">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P66">
         <v>1.37</v>
@@ -9176,13 +9176,13 @@
         <v>413</v>
       </c>
       <c r="G67">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="H67">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I67">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="J67">
         <v>1.05</v>
@@ -9197,10 +9197,10 @@
         <v>3.2</v>
       </c>
       <c r="N67">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O67">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="P67">
         <v>1.39</v>
@@ -9283,13 +9283,13 @@
         <v>414</v>
       </c>
       <c r="G68">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="H68">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I68">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="J68">
         <v>1.05</v>
@@ -9304,10 +9304,10 @@
         <v>3.3</v>
       </c>
       <c r="N68">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P68">
         <v>1.37</v>
@@ -9390,13 +9390,13 @@
         <v>415</v>
       </c>
       <c r="G69">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="H69">
         <v>3.2</v>
       </c>
       <c r="I69">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="J69">
         <v>1.06</v>
@@ -9411,10 +9411,10 @@
         <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O69">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="P69">
         <v>1.41</v>
@@ -9497,13 +9497,13 @@
         <v>416</v>
       </c>
       <c r="G70">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="H70">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I70">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J70">
         <v>1.04</v>
@@ -9518,10 +9518,10 @@
         <v>3.6</v>
       </c>
       <c r="N70">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O70">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P70">
         <v>1.36</v>
@@ -9604,13 +9604,13 @@
         <v>417</v>
       </c>
       <c r="G71">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="H71">
         <v>3.4</v>
       </c>
       <c r="I71">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J71">
         <v>1.03</v>
@@ -9625,10 +9625,10 @@
         <v>3.75</v>
       </c>
       <c r="N71">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O71">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P71">
         <v>1.34</v>
@@ -9711,13 +9711,13 @@
         <v>418</v>
       </c>
       <c r="G72">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="H72">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I72">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="J72">
         <v>1.06</v>
@@ -9732,10 +9732,10 @@
         <v>3</v>
       </c>
       <c r="N72">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="O72">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P72">
         <v>1.44</v>
@@ -9818,13 +9818,13 @@
         <v>419</v>
       </c>
       <c r="G73">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H73">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I73">
-        <v>2.95</v>
+        <v>2.69</v>
       </c>
       <c r="J73">
         <v>1.02</v>
@@ -9839,10 +9839,10 @@
         <v>3.7</v>
       </c>
       <c r="N73">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="O73">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P73">
         <v>1.36</v>
@@ -9925,13 +9925,13 @@
         <v>420</v>
       </c>
       <c r="G74">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="H74">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I74">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="J74">
         <v>1.04</v>
@@ -9946,10 +9946,10 @@
         <v>3.6</v>
       </c>
       <c r="N74">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O74">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P74">
         <v>1.34</v>
@@ -10032,10 +10032,10 @@
         <v>421</v>
       </c>
       <c r="G75">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="H75">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I75">
         <v>3.1</v>
@@ -10053,10 +10053,10 @@
         <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O75">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P75">
         <v>1.39</v>
@@ -10139,13 +10139,13 @@
         <v>422</v>
       </c>
       <c r="G76">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="H76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I76">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J76">
         <v>1.03</v>
@@ -10160,10 +10160,10 @@
         <v>2.93</v>
       </c>
       <c r="N76">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O76">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="P76">
         <v>1.44</v>
@@ -10246,13 +10246,13 @@
         <v>423</v>
       </c>
       <c r="G77">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H77">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I77">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J77">
         <v>1.05</v>
@@ -10267,10 +10267,10 @@
         <v>3.25</v>
       </c>
       <c r="N77">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="O77">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="P77">
         <v>1.39</v>
@@ -10353,13 +10353,13 @@
         <v>424</v>
       </c>
       <c r="G78">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="H78">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I78">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="J78">
         <v>1.02</v>
@@ -10374,10 +10374,10 @@
         <v>4.5</v>
       </c>
       <c r="N78">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O78">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="P78">
         <v>1.27</v>
@@ -10460,13 +10460,13 @@
         <v>425</v>
       </c>
       <c r="G79">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H79">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I79">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="J79">
         <v>1.05</v>
@@ -10481,10 +10481,10 @@
         <v>3.25</v>
       </c>
       <c r="N79">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P79">
         <v>1.39</v>
@@ -10567,13 +10567,13 @@
         <v>426</v>
       </c>
       <c r="G80">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="H80">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I80">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="J80">
         <v>1.03</v>
@@ -10588,10 +10588,10 @@
         <v>4.2</v>
       </c>
       <c r="N80">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="O80">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="P80">
         <v>1.3</v>
@@ -10674,13 +10674,13 @@
         <v>427</v>
       </c>
       <c r="G81">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="H81">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I81">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="J81">
         <v>1.04</v>
@@ -10695,10 +10695,10 @@
         <v>3.6</v>
       </c>
       <c r="N81">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="O81">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P81">
         <v>1.36</v>
@@ -10781,13 +10781,13 @@
         <v>428</v>
       </c>
       <c r="G82">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="H82">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I82">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J82">
         <v>1.08</v>
@@ -10802,10 +10802,10 @@
         <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="O82">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P82">
         <v>1.44</v>
@@ -10888,13 +10888,13 @@
         <v>429</v>
       </c>
       <c r="G83">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H83">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I83">
-        <v>3.6</v>
+        <v>2.97</v>
       </c>
       <c r="J83">
         <v>1.05</v>
@@ -10909,10 +10909,10 @@
         <v>3.3</v>
       </c>
       <c r="N83">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P83">
         <v>1.37</v>
@@ -10995,13 +10995,13 @@
         <v>430</v>
       </c>
       <c r="G84">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="H84">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I84">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="J84">
         <v>1.05</v>
@@ -11016,10 +11016,10 @@
         <v>3.25</v>
       </c>
       <c r="N84">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O84">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="P84">
         <v>1.39</v>
@@ -11102,13 +11102,13 @@
         <v>431</v>
       </c>
       <c r="G85">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="H85">
-        <v>5.35</v>
+        <v>5.8</v>
       </c>
       <c r="I85">
-        <v>7.95</v>
+        <v>13</v>
       </c>
       <c r="J85">
         <v>1.01</v>
@@ -11123,10 +11123,10 @@
         <v>6.2</v>
       </c>
       <c r="N85">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="O85">
-        <v>2.51</v>
+        <v>2.74</v>
       </c>
       <c r="P85">
         <v>1.25</v>
@@ -11272,16 +11272,16 @@
         <v>2.22</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE86">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF86">
         <v>1.3</v>
@@ -11316,13 +11316,13 @@
         <v>433</v>
       </c>
       <c r="G87">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H87">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I87">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="J87">
         <v>1.01</v>
@@ -11337,10 +11337,10 @@
         <v>3.4</v>
       </c>
       <c r="N87">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="O87">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="P87">
         <v>1.36</v>
@@ -11423,13 +11423,13 @@
         <v>434</v>
       </c>
       <c r="G88">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="H88">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I88">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="J88">
         <v>1.03</v>
@@ -11444,10 +11444,10 @@
         <v>2.97</v>
       </c>
       <c r="N88">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="O88">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="P88">
         <v>1.44</v>
@@ -11530,13 +11530,13 @@
         <v>435</v>
       </c>
       <c r="G89">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="H89">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I89">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J89">
         <v>1.07</v>
@@ -11551,10 +11551,10 @@
         <v>3.35</v>
       </c>
       <c r="N89">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O89">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="P89">
         <v>1.44</v>
@@ -11637,13 +11637,13 @@
         <v>436</v>
       </c>
       <c r="G90">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H90">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="I90">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="J90">
         <v>1.01</v>
@@ -11658,10 +11658,10 @@
         <v>5.4</v>
       </c>
       <c r="N90">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="P90">
         <v>1.25</v>
@@ -11744,13 +11744,13 @@
         <v>437</v>
       </c>
       <c r="G91">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I91">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="J91">
         <v>1.01</v>
@@ -11765,10 +11765,10 @@
         <v>3.7</v>
       </c>
       <c r="N91">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O91">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="P91">
         <v>1.36</v>
@@ -11851,13 +11851,13 @@
         <v>438</v>
       </c>
       <c r="G92">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="H92">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="I92">
-        <v>29.75</v>
+        <v>26</v>
       </c>
       <c r="J92">
         <v>1.01</v>
@@ -11872,10 +11872,10 @@
         <v>7</v>
       </c>
       <c r="N92">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="O92">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
         <v>1.17</v>
@@ -11961,7 +11961,7 @@
         <v>2.02</v>
       </c>
       <c r="H93">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I93">
         <v>3.3</v>
@@ -11979,10 +11979,10 @@
         <v>3.6</v>
       </c>
       <c r="N93">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O93">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="P93">
         <v>1.33</v>
@@ -12065,13 +12065,13 @@
         <v>440</v>
       </c>
       <c r="G94">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="H94">
         <v>3.1</v>
       </c>
       <c r="I94">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="J94">
         <v>1.06</v>
@@ -12086,10 +12086,10 @@
         <v>3.3</v>
       </c>
       <c r="N94">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="P94">
         <v>1.43</v>
@@ -12172,13 +12172,13 @@
         <v>441</v>
       </c>
       <c r="G95">
-        <v>2.83</v>
+        <v>3.05</v>
       </c>
       <c r="H95">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="J95">
         <v>1.08</v>
@@ -12193,10 +12193,10 @@
         <v>3</v>
       </c>
       <c r="N95">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="O95">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="P95">
         <v>1.46</v>
@@ -12279,13 +12279,13 @@
         <v>442</v>
       </c>
       <c r="G96">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="H96">
         <v>3.1</v>
       </c>
       <c r="I96">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J96">
         <v>1.08</v>
@@ -12303,7 +12303,7 @@
         <v>2.32</v>
       </c>
       <c r="O96">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="P96">
         <v>1.47</v>
@@ -12386,13 +12386,13 @@
         <v>443</v>
       </c>
       <c r="G97">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H97">
         <v>3.25</v>
       </c>
       <c r="I97">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="J97">
         <v>1.05</v>
@@ -12407,10 +12407,10 @@
         <v>3</v>
       </c>
       <c r="N97">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="O97">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="P97">
         <v>1.43</v>
@@ -12493,13 +12493,13 @@
         <v>444</v>
       </c>
       <c r="G98">
-        <v>2.69</v>
+        <v>2.3</v>
       </c>
       <c r="H98">
         <v>3.15</v>
       </c>
       <c r="I98">
-        <v>2.45</v>
+        <v>2.69</v>
       </c>
       <c r="J98">
         <v>1.05</v>
@@ -12514,10 +12514,10 @@
         <v>3.5</v>
       </c>
       <c r="N98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P98">
         <v>1.37</v>
@@ -12600,13 +12600,13 @@
         <v>445</v>
       </c>
       <c r="G99">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H99">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I99">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="J99">
         <v>1.03</v>
@@ -12621,10 +12621,10 @@
         <v>4.5</v>
       </c>
       <c r="N99">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="O99">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="P99">
         <v>1.32</v>
@@ -12672,7 +12672,7 @@
         <v>6.11</v>
       </c>
       <c r="AE99">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF99">
         <v>1.28</v>
@@ -12707,13 +12707,13 @@
         <v>446</v>
       </c>
       <c r="G100">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H100">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I100">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="J100">
         <v>1.06</v>
@@ -12728,10 +12728,10 @@
         <v>3.4</v>
       </c>
       <c r="N100">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="O100">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="P100">
         <v>1.39</v>
@@ -12814,13 +12814,13 @@
         <v>447</v>
       </c>
       <c r="G101">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="H101">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="J101">
         <v>1.07</v>
@@ -12835,10 +12835,10 @@
         <v>3.1</v>
       </c>
       <c r="N101">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="O101">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="P101">
         <v>1.46</v>
@@ -12921,13 +12921,13 @@
         <v>448</v>
       </c>
       <c r="G102">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H102">
         <v>3.1</v>
       </c>
       <c r="I102">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J102">
         <v>1.08</v>
@@ -12942,10 +12942,10 @@
         <v>2.8</v>
       </c>
       <c r="N102">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="O102">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="P102">
         <v>1.49</v>
@@ -13028,13 +13028,13 @@
         <v>449</v>
       </c>
       <c r="G103">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="H103">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I103">
-        <v>4.05</v>
+        <v>3.45</v>
       </c>
       <c r="J103">
         <v>1.04</v>
@@ -13049,10 +13049,10 @@
         <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="O103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P103">
         <v>1.33</v>
@@ -13100,10 +13100,10 @@
         <v>2.7</v>
       </c>
       <c r="AE103">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF103">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG103">
         <v>1.65</v>
@@ -13135,13 +13135,13 @@
         <v>450</v>
       </c>
       <c r="G104">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="H104">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I104">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="J104">
         <v>1.02</v>
@@ -13156,10 +13156,10 @@
         <v>3.22</v>
       </c>
       <c r="N104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="P104">
         <v>1.4</v>
@@ -13242,13 +13242,13 @@
         <v>451</v>
       </c>
       <c r="G105">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="H105">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I105">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -13263,10 +13263,10 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="O105">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -13349,13 +13349,13 @@
         <v>452</v>
       </c>
       <c r="G106">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="H106">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I106">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -13370,10 +13370,10 @@
         <v>4.1</v>
       </c>
       <c r="N106">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="P106">
         <v>1.31</v>
@@ -13456,13 +13456,13 @@
         <v>453</v>
       </c>
       <c r="G107">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H107">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I107">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J107">
         <v>1.02</v>
@@ -13477,10 +13477,10 @@
         <v>5.5</v>
       </c>
       <c r="N107">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O107">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="P107">
         <v>1.22</v>
@@ -13563,13 +13563,13 @@
         <v>454</v>
       </c>
       <c r="G108">
-        <v>8.050000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="H108">
-        <v>5.15</v>
+        <v>4.5</v>
       </c>
       <c r="I108">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="J108">
         <v>1.01</v>
@@ -13584,10 +13584,10 @@
         <v>5</v>
       </c>
       <c r="N108">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="O108">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="P108">
         <v>1.22</v>
@@ -13670,13 +13670,13 @@
         <v>455</v>
       </c>
       <c r="G109">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="H109">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="I109">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J109">
         <v>1.14</v>
@@ -13685,16 +13685,16 @@
         <v>5</v>
       </c>
       <c r="L109">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="M109">
-        <v>2.16</v>
+        <v>2.37</v>
       </c>
       <c r="N109">
-        <v>2.51</v>
+        <v>3.15</v>
       </c>
       <c r="O109">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="P109">
         <v>1.62</v>
@@ -13777,13 +13777,13 @@
         <v>456</v>
       </c>
       <c r="G110">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="H110">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I110">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="J110">
         <v>1.07</v>
@@ -13798,10 +13798,10 @@
         <v>3.1</v>
       </c>
       <c r="N110">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="O110">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="P110">
         <v>1.43</v>
@@ -13884,13 +13884,13 @@
         <v>457</v>
       </c>
       <c r="G111">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H111">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="I111">
-        <v>6.25</v>
+        <v>5.7</v>
       </c>
       <c r="J111">
         <v>1.03</v>
@@ -13905,10 +13905,10 @@
         <v>4.2</v>
       </c>
       <c r="N111">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="O111">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="P111">
         <v>1.29</v>
@@ -13947,25 +13947,25 @@
         <v>2.64</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC111">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD111">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AE111">
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG111">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH111">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AI111">
         <v>0</v>
@@ -13991,13 +13991,13 @@
         <v>458</v>
       </c>
       <c r="G112">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I112">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J112">
         <v>1.03</v>
@@ -14012,10 +14012,10 @@
         <v>3</v>
       </c>
       <c r="N112">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="P112">
         <v>1.45</v>
@@ -14098,13 +14098,13 @@
         <v>459</v>
       </c>
       <c r="G113">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H113">
-        <v>4.09</v>
+        <v>4.5</v>
       </c>
       <c r="I113">
-        <v>6.73</v>
+        <v>8.81</v>
       </c>
       <c r="J113">
         <v>1.01</v>
@@ -14119,10 +14119,10 @@
         <v>4.2</v>
       </c>
       <c r="N113">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O113">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="P113">
         <v>1.25</v>
@@ -14205,13 +14205,13 @@
         <v>460</v>
       </c>
       <c r="G114">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H114">
         <v>3.9</v>
       </c>
       <c r="I114">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J114">
         <v>1.02</v>
@@ -14226,10 +14226,10 @@
         <v>4.5</v>
       </c>
       <c r="N114">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O114">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="P114">
         <v>1.25</v>
@@ -14277,7 +14277,7 @@
         <v>1.45</v>
       </c>
       <c r="AE114">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF114">
         <v>1.26</v>
@@ -14312,13 +14312,13 @@
         <v>461</v>
       </c>
       <c r="G115">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="H115">
         <v>3.7</v>
       </c>
       <c r="I115">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J115">
         <v>1.03</v>
@@ -14333,10 +14333,10 @@
         <v>4.05</v>
       </c>
       <c r="N115">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O115">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="P115">
         <v>1.32</v>
@@ -14419,13 +14419,13 @@
         <v>462</v>
       </c>
       <c r="G116">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="H116">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I116">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="J116">
         <v>1.03</v>
@@ -14440,10 +14440,10 @@
         <v>4.5</v>
       </c>
       <c r="N116">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O116">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P116">
         <v>1.28</v>
@@ -14529,10 +14529,10 @@
         <v>2.58</v>
       </c>
       <c r="H117">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I117">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="J117">
         <v>1.02</v>
@@ -14547,10 +14547,10 @@
         <v>5.1</v>
       </c>
       <c r="N117">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="O117">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="P117">
         <v>1.25</v>
@@ -14633,13 +14633,13 @@
         <v>464</v>
       </c>
       <c r="G118">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="H118">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I118">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J118">
         <v>1.03</v>
@@ -14654,10 +14654,10 @@
         <v>4.5</v>
       </c>
       <c r="N118">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="O118">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="P118">
         <v>1.29</v>
@@ -14740,13 +14740,13 @@
         <v>465</v>
       </c>
       <c r="G119">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I119">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J119">
         <v>1.04</v>
@@ -14761,10 +14761,10 @@
         <v>4</v>
       </c>
       <c r="N119">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="O119">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="P119">
         <v>1.33</v>
@@ -14847,13 +14847,13 @@
         <v>466</v>
       </c>
       <c r="G120">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="H120">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="I120">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="J120">
         <v>1.05</v>
@@ -14868,10 +14868,10 @@
         <v>3.2</v>
       </c>
       <c r="N120">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O120">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="P120">
         <v>1.34</v>
@@ -14954,13 +14954,13 @@
         <v>467</v>
       </c>
       <c r="G121">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H121">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="I121">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J121">
         <v>1.03</v>
@@ -14975,10 +14975,10 @@
         <v>4.5</v>
       </c>
       <c r="N121">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O121">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="P121">
         <v>1.3</v>
@@ -15026,10 +15026,10 @@
         <v>4.5</v>
       </c>
       <c r="AE121">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF121">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG121">
         <v>1.46</v>
@@ -15064,10 +15064,10 @@
         <v>1.8</v>
       </c>
       <c r="H122">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I122">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J122">
         <v>1.04</v>
@@ -15082,10 +15082,10 @@
         <v>4.33</v>
       </c>
       <c r="N122">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O122">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="P122">
         <v>1.33</v>
@@ -15133,10 +15133,10 @@
         <v>2.88</v>
       </c>
       <c r="AE122">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF122">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG122">
         <v>1.34</v>
@@ -15168,13 +15168,13 @@
         <v>469</v>
       </c>
       <c r="G123">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="H123">
         <v>3.35</v>
       </c>
       <c r="I123">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J123">
         <v>1.04</v>
@@ -15192,7 +15192,7 @@
         <v>2.12</v>
       </c>
       <c r="O123">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="P123">
         <v>1.45</v>
@@ -15275,10 +15275,10 @@
         <v>470</v>
       </c>
       <c r="G124">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H124">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I124">
         <v>5.1</v>
@@ -15296,10 +15296,10 @@
         <v>4</v>
       </c>
       <c r="N124">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="O124">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="P124">
         <v>1.36</v>
@@ -15347,10 +15347,10 @@
         <v>3.3</v>
       </c>
       <c r="AE124">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF124">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG124">
         <v>1.39</v>
@@ -15382,13 +15382,13 @@
         <v>471</v>
       </c>
       <c r="G125">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="H125">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="J125">
         <v>1.08</v>
@@ -15403,10 +15403,10 @@
         <v>2.75</v>
       </c>
       <c r="N125">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O125">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="P125">
         <v>1.4</v>
@@ -15489,13 +15489,13 @@
         <v>472</v>
       </c>
       <c r="G126">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H126">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I126">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J126">
         <v>1.03</v>
@@ -15510,10 +15510,10 @@
         <v>4.75</v>
       </c>
       <c r="N126">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O126">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="P126">
         <v>1.33</v>
@@ -15599,10 +15599,10 @@
         <v>1.8</v>
       </c>
       <c r="H127">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I127">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J127">
         <v>1.03</v>
@@ -15617,10 +15617,10 @@
         <v>4.75</v>
       </c>
       <c r="N127">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O127">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="P127">
         <v>1.33</v>
@@ -15703,13 +15703,13 @@
         <v>474</v>
       </c>
       <c r="G128">
-        <v>2.69</v>
+        <v>2.92</v>
       </c>
       <c r="H128">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I128">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="J128">
         <v>1.02</v>
@@ -15724,10 +15724,10 @@
         <v>5</v>
       </c>
       <c r="N128">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O128">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P128">
         <v>1.28</v>
@@ -15810,13 +15810,13 @@
         <v>475</v>
       </c>
       <c r="G129">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I129">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J129">
         <v>1.03</v>
@@ -15831,10 +15831,10 @@
         <v>4.72</v>
       </c>
       <c r="N129">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="O129">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="P129">
         <v>1.3</v>
@@ -15917,13 +15917,13 @@
         <v>476</v>
       </c>
       <c r="G130">
+        <v>4.1</v>
+      </c>
+      <c r="H130">
         <v>3.8</v>
       </c>
-      <c r="H130">
-        <v>3.7</v>
-      </c>
       <c r="I130">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J130">
         <v>1.03</v>
@@ -15938,10 +15938,10 @@
         <v>4.33</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="O130">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="P130">
         <v>1.33</v>
@@ -16024,13 +16024,13 @@
         <v>477</v>
       </c>
       <c r="G131">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="H131">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I131">
-        <v>4.63</v>
+        <v>4.14</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -16045,10 +16045,10 @@
         <v>4.1</v>
       </c>
       <c r="N131">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>2.3</v>
+        <v>2.11</v>
       </c>
       <c r="P131">
         <v>1.31</v>
@@ -16131,13 +16131,13 @@
         <v>478</v>
       </c>
       <c r="G132">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="H132">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I132">
-        <v>6.55</v>
+        <v>6.25</v>
       </c>
       <c r="J132">
         <v>1.01</v>
@@ -16152,10 +16152,10 @@
         <v>5</v>
       </c>
       <c r="N132">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="O132">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="P132">
         <v>1.25</v>
@@ -16238,13 +16238,13 @@
         <v>479</v>
       </c>
       <c r="G133">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="H133">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I133">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="J133">
         <v>1.01</v>
@@ -16259,10 +16259,10 @@
         <v>5.1</v>
       </c>
       <c r="N133">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="O133">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="P133">
         <v>1.25</v>
@@ -16452,13 +16452,13 @@
         <v>481</v>
       </c>
       <c r="G135">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H135">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I135">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="J135">
         <v>1.06</v>
@@ -16473,10 +16473,10 @@
         <v>3.25</v>
       </c>
       <c r="N135">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O135">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="P135">
         <v>1.4</v>
@@ -16559,13 +16559,13 @@
         <v>482</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H136">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I136">
-        <v>3.15</v>
+        <v>4.15</v>
       </c>
       <c r="J136">
         <v>1.02</v>
@@ -16580,10 +16580,10 @@
         <v>4.65</v>
       </c>
       <c r="N136">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O136">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="P136">
         <v>1.28</v>
@@ -16666,13 +16666,13 @@
         <v>483</v>
       </c>
       <c r="G137">
-        <v>2.69</v>
+        <v>2.98</v>
       </c>
       <c r="H137">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I137">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="J137">
         <v>1.02</v>
@@ -16687,10 +16687,10 @@
         <v>4.9</v>
       </c>
       <c r="N137">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="O137">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="P137">
         <v>1.26</v>
@@ -16883,10 +16883,10 @@
         <v>2.41</v>
       </c>
       <c r="H139">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I139">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="J139">
         <v>1.08</v>
@@ -16901,10 +16901,10 @@
         <v>2.95</v>
       </c>
       <c r="N139">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O139">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P139">
         <v>1.44</v>
@@ -16987,13 +16987,13 @@
         <v>486</v>
       </c>
       <c r="G140">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="H140">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I140">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J140">
         <v>1.07</v>
@@ -17008,10 +17008,10 @@
         <v>3.3</v>
       </c>
       <c r="N140">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P140">
         <v>1.41</v>
@@ -17094,13 +17094,13 @@
         <v>487</v>
       </c>
       <c r="G141">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="H141">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I141">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J141">
         <v>1.08</v>
@@ -17115,10 +17115,10 @@
         <v>3.2</v>
       </c>
       <c r="N141">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O141">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P141">
         <v>1.41</v>
@@ -17201,13 +17201,13 @@
         <v>488</v>
       </c>
       <c r="G142">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="H142">
-        <v>2.81</v>
+        <v>3.2</v>
       </c>
       <c r="I142">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="J142">
         <v>1.09</v>
@@ -17216,16 +17216,16 @@
         <v>7</v>
       </c>
       <c r="L142">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="M142">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="N142">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="O142">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P142">
         <v>1.52</v>
@@ -17308,13 +17308,13 @@
         <v>489</v>
       </c>
       <c r="G143">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="H143">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I143">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="J143">
         <v>1.07</v>
@@ -17329,10 +17329,10 @@
         <v>3.1</v>
       </c>
       <c r="N143">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="O143">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P143">
         <v>1.43</v>
@@ -17415,13 +17415,13 @@
         <v>490</v>
       </c>
       <c r="G144">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I144">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="J144">
         <v>1.07</v>
@@ -17436,10 +17436,10 @@
         <v>3</v>
       </c>
       <c r="N144">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O144">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P144">
         <v>1.4</v>
@@ -17522,13 +17522,13 @@
         <v>491</v>
       </c>
       <c r="G145">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="H145">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I145">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J145">
         <v>1.07</v>
@@ -17543,10 +17543,10 @@
         <v>3</v>
       </c>
       <c r="N145">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O145">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P145">
         <v>1.44</v>
@@ -17629,13 +17629,13 @@
         <v>492</v>
       </c>
       <c r="G146">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="H146">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I146">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J146">
         <v>1.08</v>
@@ -17650,10 +17650,10 @@
         <v>2.9</v>
       </c>
       <c r="N146">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="O146">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P146">
         <v>1.46</v>
@@ -17736,13 +17736,13 @@
         <v>493</v>
       </c>
       <c r="G147">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="H147">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I147">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="J147">
         <v>1.03</v>
@@ -17757,10 +17757,10 @@
         <v>3.6</v>
       </c>
       <c r="N147">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="O147">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="P147">
         <v>1.34</v>
@@ -17843,13 +17843,13 @@
         <v>494</v>
       </c>
       <c r="G148">
-        <v>2.31</v>
+        <v>2.06</v>
       </c>
       <c r="H148">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I148">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J148">
         <v>1.08</v>
@@ -17864,10 +17864,10 @@
         <v>2.8</v>
       </c>
       <c r="N148">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O148">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="P148">
         <v>1.5</v>
@@ -17950,13 +17950,13 @@
         <v>495</v>
       </c>
       <c r="G149">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H149">
-        <v>6.95</v>
+        <v>9</v>
       </c>
       <c r="I149">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="J149">
         <v>1.01</v>
@@ -18057,13 +18057,13 @@
         <v>496</v>
       </c>
       <c r="G150">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="H150">
         <v>3.1</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -18078,10 +18078,10 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="O150">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -18164,13 +18164,13 @@
         <v>497</v>
       </c>
       <c r="G151">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H151">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="I151">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="J151">
         <v>1.07</v>
@@ -18185,7 +18185,7 @@
         <v>2.45</v>
       </c>
       <c r="N151">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="O151">
         <v>1.5</v>
@@ -18271,13 +18271,13 @@
         <v>498</v>
       </c>
       <c r="G152">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="H152">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I152">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="J152">
         <v>1.09</v>
@@ -18286,16 +18286,16 @@
         <v>7</v>
       </c>
       <c r="L152">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M152">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="N152">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="O152">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P152">
         <v>1.56</v>
@@ -18378,10 +18378,10 @@
         <v>499</v>
       </c>
       <c r="G153">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="H153">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I153">
         <v>3.3</v>
@@ -18399,10 +18399,10 @@
         <v>3.3</v>
       </c>
       <c r="N153">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="O153">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="P153">
         <v>1.44</v>
@@ -18485,13 +18485,13 @@
         <v>500</v>
       </c>
       <c r="G154">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="H154">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="I154">
-        <v>7.35</v>
+        <v>6.3</v>
       </c>
       <c r="J154">
         <v>1.03</v>
@@ -18506,10 +18506,10 @@
         <v>4.33</v>
       </c>
       <c r="N154">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="O154">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="P154">
         <v>1.3</v>
@@ -18699,13 +18699,13 @@
         <v>502</v>
       </c>
       <c r="G156">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="H156">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="I156">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J156">
         <v>1.12</v>
@@ -18714,16 +18714,16 @@
         <v>6.5</v>
       </c>
       <c r="L156">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M156">
+        <v>2.35</v>
+      </c>
+      <c r="N156">
         <v>2.5</v>
       </c>
-      <c r="N156">
-        <v>2.65</v>
-      </c>
       <c r="O156">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="P156">
         <v>1.57</v>
@@ -18806,13 +18806,13 @@
         <v>503</v>
       </c>
       <c r="G157">
-        <v>2.03</v>
+        <v>2.28</v>
       </c>
       <c r="H157">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I157">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="J157">
         <v>1.02</v>
@@ -18827,10 +18827,10 @@
         <v>4</v>
       </c>
       <c r="N157">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="O157">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P157">
         <v>1.3</v>
@@ -18913,13 +18913,13 @@
         <v>504</v>
       </c>
       <c r="G158">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="H158">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I158">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
       <c r="J158">
         <v>1.02</v>
@@ -18934,10 +18934,10 @@
         <v>4.7</v>
       </c>
       <c r="N158">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="O158">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="P158">
         <v>1.27</v>
@@ -19020,13 +19020,13 @@
         <v>505</v>
       </c>
       <c r="G159">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H159">
         <v>3.65</v>
       </c>
       <c r="I159">
-        <v>4.95</v>
+        <v>4.9</v>
       </c>
       <c r="J159">
         <v>1.05</v>
@@ -19041,10 +19041,10 @@
         <v>3.6</v>
       </c>
       <c r="N159">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="O159">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P159">
         <v>1.36</v>
@@ -19127,13 +19127,13 @@
         <v>506</v>
       </c>
       <c r="G160">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H160">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J160">
         <v>1.04</v>
@@ -19148,10 +19148,10 @@
         <v>3.92</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O160">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="P160">
         <v>1.33</v>
@@ -19234,13 +19234,13 @@
         <v>507</v>
       </c>
       <c r="G161">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="H161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I161">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="J161">
         <v>1.03</v>
@@ -19255,10 +19255,10 @@
         <v>3</v>
       </c>
       <c r="N161">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O161">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P161">
         <v>1.43</v>
@@ -19318,7 +19318,7 @@
         <v>4</v>
       </c>
       <c r="AI161">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="162" spans="1:35">
@@ -19341,13 +19341,13 @@
         <v>508</v>
       </c>
       <c r="G162">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="H162">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>5.55</v>
+        <v>4.7</v>
       </c>
       <c r="J162">
         <v>1.04</v>
@@ -19362,10 +19362,10 @@
         <v>4.2</v>
       </c>
       <c r="N162">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="O162">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P162">
         <v>1.3</v>
@@ -19448,13 +19448,13 @@
         <v>509</v>
       </c>
       <c r="G163">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="H163">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I163">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="J163">
         <v>1.01</v>
@@ -19469,10 +19469,10 @@
         <v>5.5</v>
       </c>
       <c r="N163">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O163">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="P163">
         <v>1.24</v>
@@ -19555,10 +19555,10 @@
         <v>510</v>
       </c>
       <c r="G164">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="H164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I164">
         <v>3.6</v>
@@ -19576,10 +19576,10 @@
         <v>2.95</v>
       </c>
       <c r="N164">
-        <v>2.13</v>
+        <v>2.16</v>
       </c>
       <c r="O164">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="P164">
         <v>1.47</v>
@@ -19662,10 +19662,10 @@
         <v>511</v>
       </c>
       <c r="G165">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="H165">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I165">
         <v>3.1</v>
@@ -19683,10 +19683,10 @@
         <v>2.93</v>
       </c>
       <c r="N165">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="O165">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="P165">
         <v>1.44</v>
@@ -19769,13 +19769,13 @@
         <v>512</v>
       </c>
       <c r="G166">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="H166">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I166">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="J166">
         <v>1.1</v>
@@ -19790,10 +19790,10 @@
         <v>2.8</v>
       </c>
       <c r="N166">
-        <v>2.13</v>
+        <v>2.28</v>
       </c>
       <c r="O166">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="P166">
         <v>1.49</v>
@@ -19876,13 +19876,13 @@
         <v>513</v>
       </c>
       <c r="G167">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="H167">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I167">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="J167">
         <v>1.04</v>
@@ -19897,10 +19897,10 @@
         <v>2.79</v>
       </c>
       <c r="N167">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O167">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="P167">
         <v>1.49</v>
@@ -19983,13 +19983,13 @@
         <v>514</v>
       </c>
       <c r="G168">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="H168">
         <v>3.25</v>
       </c>
       <c r="I168">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J168">
         <v>1.08</v>
@@ -20004,10 +20004,10 @@
         <v>2.9</v>
       </c>
       <c r="N168">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="O168">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="P168">
         <v>1.47</v>
@@ -20090,13 +20090,13 @@
         <v>515</v>
       </c>
       <c r="G169">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="H169">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="I169">
-        <v>13.78</v>
+        <v>12.5</v>
       </c>
       <c r="J169">
         <v>1.02</v>
@@ -20197,13 +20197,13 @@
         <v>516</v>
       </c>
       <c r="G170">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="H170">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I170">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="J170">
         <v>1.06</v>
@@ -20218,10 +20218,10 @@
         <v>3.05</v>
       </c>
       <c r="N170">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="O170">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="P170">
         <v>1.43</v>
@@ -20304,13 +20304,13 @@
         <v>517</v>
       </c>
       <c r="G171">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="H171">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I171">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -20325,10 +20325,10 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="O171">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -20411,13 +20411,13 @@
         <v>518</v>
       </c>
       <c r="G172">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H172">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J172">
         <v>1.06</v>
@@ -20432,10 +20432,10 @@
         <v>2.65</v>
       </c>
       <c r="N172">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="O172">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P172">
         <v>1.53</v>
@@ -20518,13 +20518,13 @@
         <v>519</v>
       </c>
       <c r="G173">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H173">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I173">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J173">
         <v>1.08</v>
@@ -20539,10 +20539,10 @@
         <v>2.9</v>
       </c>
       <c r="N173">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O173">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="P173">
         <v>1.5</v>
@@ -20625,13 +20625,13 @@
         <v>520</v>
       </c>
       <c r="G174">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="H174">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I174">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="J174">
         <v>1.02</v>
@@ -20646,10 +20646,10 @@
         <v>4.33</v>
       </c>
       <c r="N174">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O174">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P174">
         <v>1.29</v>
@@ -20839,13 +20839,13 @@
         <v>522</v>
       </c>
       <c r="G176">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="H176">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I176">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="J176">
         <v>1.07</v>
@@ -20860,10 +20860,10 @@
         <v>3.2</v>
       </c>
       <c r="N176">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="O176">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="P176">
         <v>1.44</v>
@@ -20946,13 +20946,13 @@
         <v>523</v>
       </c>
       <c r="G177">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="H177">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J177">
         <v>1.05</v>
@@ -20967,10 +20967,10 @@
         <v>2.64</v>
       </c>
       <c r="N177">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="O177">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="P177">
         <v>1.5</v>
@@ -21053,10 +21053,10 @@
         <v>524</v>
       </c>
       <c r="G178">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="H178">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I178">
         <v>3.1</v>
@@ -21074,10 +21074,10 @@
         <v>3.61</v>
       </c>
       <c r="N178">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="O178">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="P178">
         <v>1.36</v>
@@ -21160,13 +21160,13 @@
         <v>525</v>
       </c>
       <c r="G179">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="H179">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="I179">
-        <v>2.77</v>
+        <v>2.93</v>
       </c>
       <c r="J179">
         <v>1.06</v>
@@ -21181,10 +21181,10 @@
         <v>2.54</v>
       </c>
       <c r="N179">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="O179">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P179">
         <v>1.51</v>
@@ -21223,13 +21223,13 @@
         <v>3.18</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AC179">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD179">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE179">
         <v>0</v>
@@ -21238,13 +21238,13 @@
         <v>0</v>
       </c>
       <c r="AG179">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH179">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI179">
-        <v>0</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="180" spans="1:35">
@@ -21267,13 +21267,13 @@
         <v>526</v>
       </c>
       <c r="G180">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H180">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="I180">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -21288,10 +21288,10 @@
         <v>2.42</v>
       </c>
       <c r="N180">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="O180">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -21374,13 +21374,13 @@
         <v>527</v>
       </c>
       <c r="G181">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="H181">
         <v>3.15</v>
       </c>
       <c r="I181">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="J181">
         <v>1.05</v>
@@ -21395,10 +21395,10 @@
         <v>3.2</v>
       </c>
       <c r="N181">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="O181">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="P181">
         <v>1.44</v>
@@ -21481,13 +21481,13 @@
         <v>528</v>
       </c>
       <c r="G182">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="H182">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I182">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -21496,16 +21496,16 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N182">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="O182">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -21588,7 +21588,7 @@
         <v>529</v>
       </c>
       <c r="G183">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H183">
         <v>3.25</v>
@@ -21609,10 +21609,10 @@
         <v>2.54</v>
       </c>
       <c r="N183">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="O183">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P183">
         <v>1.5</v>
@@ -21651,13 +21651,13 @@
         <v>3.47</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AC183">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD183">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AE183">
         <v>0</v>
@@ -21666,13 +21666,13 @@
         <v>0</v>
       </c>
       <c r="AG183">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH183">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI183">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="184" spans="1:35">
@@ -21695,13 +21695,13 @@
         <v>530</v>
       </c>
       <c r="G184">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="H184">
         <v>3.05</v>
       </c>
       <c r="I184">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J184">
         <v>1.06</v>
@@ -21716,10 +21716,10 @@
         <v>2.62</v>
       </c>
       <c r="N184">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="O184">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P184">
         <v>1.51</v>
@@ -21758,25 +21758,25 @@
         <v>2.95</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC184">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD184">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE184">
         <v>0</v>
       </c>
       <c r="AF184">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG184">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH184">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AI184">
         <v>0</v>
@@ -21802,13 +21802,13 @@
         <v>531</v>
       </c>
       <c r="G185">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H185">
-        <v>4.05</v>
+        <v>4.6</v>
       </c>
       <c r="I185">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="J185">
         <v>1.04</v>
@@ -21823,10 +21823,10 @@
         <v>2.75</v>
       </c>
       <c r="N185">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="O185">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="P185">
         <v>1.46</v>
@@ -21865,25 +21865,25 @@
         <v>3.27</v>
       </c>
       <c r="AB185">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AC185">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD185">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE185">
         <v>0</v>
       </c>
       <c r="AF185">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG185">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH185">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI185">
         <v>0</v>
@@ -21909,13 +21909,13 @@
         <v>532</v>
       </c>
       <c r="G186">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="H186">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="I186">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="J186">
         <v>1.09</v>
@@ -21924,16 +21924,16 @@
         <v>7.5</v>
       </c>
       <c r="L186">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M186">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="N186">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="O186">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P186">
         <v>1.52</v>
@@ -21972,25 +21972,25 @@
         <v>3.33</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC186">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD186">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AE186">
         <v>0</v>
       </c>
       <c r="AF186">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG186">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH186">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AI186">
         <v>0</v>
@@ -22016,13 +22016,13 @@
         <v>533</v>
       </c>
       <c r="G187">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="H187">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="I187">
-        <v>4.45</v>
+        <v>3.45</v>
       </c>
       <c r="J187">
         <v>1.09</v>
@@ -22031,16 +22031,16 @@
         <v>7.35</v>
       </c>
       <c r="L187">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M187">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="N187">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="O187">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P187">
         <v>1.5</v>
@@ -22079,13 +22079,13 @@
         <v>2.82</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AC187">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD187">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE187">
         <v>0</v>
@@ -22094,13 +22094,13 @@
         <v>0</v>
       </c>
       <c r="AG187">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH187">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AI187">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="188" spans="1:35">
@@ -22123,13 +22123,13 @@
         <v>534</v>
       </c>
       <c r="G188">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="H188">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I188">
-        <v>3.6</v>
+        <v>2.93</v>
       </c>
       <c r="J188">
         <v>1.02</v>
@@ -22144,10 +22144,10 @@
         <v>4.65</v>
       </c>
       <c r="N188">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O188">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="P188">
         <v>1.3</v>
@@ -22230,13 +22230,13 @@
         <v>535</v>
       </c>
       <c r="G189">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="H189">
         <v>4.2</v>
       </c>
       <c r="I189">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="J189">
         <v>1.03</v>
@@ -22251,10 +22251,10 @@
         <v>4.73</v>
       </c>
       <c r="N189">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O189">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P189">
         <v>1.29</v>
@@ -22337,13 +22337,13 @@
         <v>536</v>
       </c>
       <c r="G190">
-        <v>2.19</v>
+        <v>1.85</v>
       </c>
       <c r="H190">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I190">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="J190">
         <v>1.06</v>
@@ -22352,16 +22352,16 @@
         <v>7.8</v>
       </c>
       <c r="L190">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M190">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="O190">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P190">
         <v>1.51</v>
@@ -22400,13 +22400,13 @@
         <v>2.98</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC190">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD190">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AE190">
         <v>0</v>
@@ -22415,13 +22415,13 @@
         <v>0</v>
       </c>
       <c r="AG190">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH190">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI190">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="191" spans="1:35">
@@ -22444,13 +22444,13 @@
         <v>537</v>
       </c>
       <c r="G191">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="H191">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I191">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="J191">
         <v>1.09</v>
@@ -22465,10 +22465,10 @@
         <v>2.63</v>
       </c>
       <c r="N191">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="O191">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P191">
         <v>1.54</v>
@@ -22507,25 +22507,25 @@
         <v>2.55</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AC191">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD191">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AE191">
         <v>0</v>
       </c>
       <c r="AF191">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG191">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH191">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI191">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>540</v>
       </c>
       <c r="G194">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="H194">
         <v>3.75</v>
@@ -22786,10 +22786,10 @@
         <v>3.4</v>
       </c>
       <c r="N194">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="O194">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P194">
         <v>1.4</v>
@@ -22872,13 +22872,13 @@
         <v>541</v>
       </c>
       <c r="G195">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="H195">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I195">
-        <v>5.85</v>
+        <v>5.3</v>
       </c>
       <c r="J195">
         <v>1.06</v>
@@ -22979,13 +22979,13 @@
         <v>542</v>
       </c>
       <c r="G196">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="H196">
         <v>3.35</v>
       </c>
       <c r="I196">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J196">
         <v>1.06</v>
@@ -23086,13 +23086,13 @@
         <v>543</v>
       </c>
       <c r="G197">
-        <v>8.85</v>
+        <v>9.9</v>
       </c>
       <c r="H197">
-        <v>4.85</v>
+        <v>5.6</v>
       </c>
       <c r="I197">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -23107,10 +23107,10 @@
         <v>0</v>
       </c>
       <c r="N197">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O197">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>544</v>
       </c>
       <c r="G198">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="H198">
-        <v>2.89</v>
+        <v>2.99</v>
       </c>
       <c r="I198">
-        <v>2.89</v>
+        <v>2.64</v>
       </c>
       <c r="J198">
         <v>1.1</v>
@@ -23214,10 +23214,10 @@
         <v>2.55</v>
       </c>
       <c r="N198">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O198">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P198">
         <v>1.55</v>
@@ -23300,13 +23300,13 @@
         <v>545</v>
       </c>
       <c r="G199">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="H199">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I199">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="J199">
         <v>1.12</v>
@@ -23315,16 +23315,16 @@
         <v>6.27</v>
       </c>
       <c r="L199">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M199">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N199">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="O199">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P199">
         <v>1.6</v>
@@ -23407,13 +23407,13 @@
         <v>546</v>
       </c>
       <c r="G200">
+        <v>3.85</v>
+      </c>
+      <c r="H200">
         <v>3.45</v>
       </c>
-      <c r="H200">
-        <v>2.95</v>
-      </c>
       <c r="I200">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="J200">
         <v>1.06</v>
@@ -23428,10 +23428,10 @@
         <v>2.87</v>
       </c>
       <c r="N200">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="O200">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="P200">
         <v>1.47</v>
@@ -23514,13 +23514,13 @@
         <v>547</v>
       </c>
       <c r="G201">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H201">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I201">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -23535,10 +23535,10 @@
         <v>0</v>
       </c>
       <c r="N201">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="O201">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>548</v>
       </c>
       <c r="G202">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="H202">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="J202">
         <v>1.1</v>
@@ -23642,10 +23642,10 @@
         <v>2.45</v>
       </c>
       <c r="N202">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="O202">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="P202">
         <v>1.58</v>
@@ -23728,37 +23728,37 @@
         <v>549</v>
       </c>
       <c r="G203">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="H203">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="I203">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L203">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M203">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="O203">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R203">
         <v>2.05</v>
@@ -23767,13 +23767,13 @@
         <v>1.7</v>
       </c>
       <c r="T203">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U203">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V203">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="W203">
         <v>2</v>
@@ -23800,19 +23800,19 @@
         <v>3.42</v>
       </c>
       <c r="AE203">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF203">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG203">
         <v>1.91</v>
       </c>
       <c r="AH203">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI203">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="204" spans="1:35">
@@ -23835,13 +23835,13 @@
         <v>550</v>
       </c>
       <c r="G204">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="H204">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I204">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J204">
         <v>1.04</v>
@@ -23856,10 +23856,10 @@
         <v>3.5</v>
       </c>
       <c r="N204">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="O204">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="P204">
         <v>1.4</v>
@@ -24026,7 +24026,7 @@
         <v>3.2</v>
       </c>
       <c r="AI205">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="206" spans="1:35">
@@ -24263,13 +24263,13 @@
         <v>554</v>
       </c>
       <c r="G208">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="H208">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I208">
-        <v>3.3</v>
+        <v>2.71</v>
       </c>
       <c r="J208">
         <v>1.04</v>
@@ -24284,10 +24284,10 @@
         <v>4.18</v>
       </c>
       <c r="N208">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="O208">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="P208">
         <v>1.35</v>
@@ -24370,13 +24370,13 @@
         <v>555</v>
       </c>
       <c r="G209">
-        <v>2.63</v>
+        <v>2.28</v>
       </c>
       <c r="H209">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="I209">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -24391,10 +24391,10 @@
         <v>0</v>
       </c>
       <c r="N209">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="O209">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -24477,13 +24477,13 @@
         <v>556</v>
       </c>
       <c r="G210">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="H210">
         <v>3.55</v>
       </c>
       <c r="I210">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="J210">
         <v>1.04</v>
@@ -24498,10 +24498,10 @@
         <v>4</v>
       </c>
       <c r="N210">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O210">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="P210">
         <v>1.33</v>
@@ -24584,13 +24584,13 @@
         <v>557</v>
       </c>
       <c r="G211">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
       <c r="H211">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I211">
-        <v>2.8</v>
+        <v>2.49</v>
       </c>
       <c r="J211">
         <v>1.03</v>
@@ -24605,10 +24605,10 @@
         <v>4</v>
       </c>
       <c r="N211">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="O211">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="P211">
         <v>1.32</v>
@@ -24691,13 +24691,13 @@
         <v>558</v>
       </c>
       <c r="G212">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="H212">
         <v>3.4</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="J212">
         <v>1.05</v>
@@ -24712,10 +24712,10 @@
         <v>3.8</v>
       </c>
       <c r="N212">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O212">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="P212">
         <v>1.38</v>
@@ -24798,13 +24798,13 @@
         <v>559</v>
       </c>
       <c r="G213">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="H213">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I213">
-        <v>5.45</v>
+        <v>5.8</v>
       </c>
       <c r="J213">
         <v>1.03</v>
@@ -24819,10 +24819,10 @@
         <v>4.4</v>
       </c>
       <c r="N213">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O213">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="P213">
         <v>1.25</v>
@@ -24905,13 +24905,13 @@
         <v>560</v>
       </c>
       <c r="G214">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="H214">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I214">
-        <v>4.8</v>
+        <v>4.15</v>
       </c>
       <c r="J214">
         <v>1.04</v>
@@ -24926,10 +24926,10 @@
         <v>4.28</v>
       </c>
       <c r="N214">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O214">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="P214">
         <v>1.32</v>
@@ -25012,13 +25012,13 @@
         <v>561</v>
       </c>
       <c r="G215">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="H215">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I215">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="J215">
         <v>1.03</v>
@@ -25033,10 +25033,10 @@
         <v>3.75</v>
       </c>
       <c r="N215">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O215">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="P215">
         <v>1.36</v>
@@ -25119,13 +25119,13 @@
         <v>562</v>
       </c>
       <c r="G216">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="H216">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I216">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="J216">
         <v>1.05</v>
@@ -25140,10 +25140,10 @@
         <v>4.05</v>
       </c>
       <c r="N216">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="O216">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="P216">
         <v>1.38</v>
@@ -25226,37 +25226,37 @@
         <v>563</v>
       </c>
       <c r="G217">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="H217">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I217">
         <v>4.65</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M217">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N217">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="O217">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="P217">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R217">
         <v>2.2</v>
@@ -25265,13 +25265,13 @@
         <v>1.62</v>
       </c>
       <c r="T217">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U217">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V217">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W217">
         <v>1.88</v>
@@ -25289,28 +25289,28 @@
         <v>3.02</v>
       </c>
       <c r="AB217">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AC217">
         <v>7.5</v>
       </c>
       <c r="AD217">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AE217">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF217">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG217">
         <v>1.83</v>
       </c>
       <c r="AH217">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI217">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="218" spans="1:35">
@@ -25333,13 +25333,13 @@
         <v>564</v>
       </c>
       <c r="G218">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="H218">
-        <v>3.1</v>
+        <v>3.39</v>
       </c>
       <c r="I218">
-        <v>3.55</v>
+        <v>2.79</v>
       </c>
       <c r="J218">
         <v>1.06</v>
@@ -25354,10 +25354,10 @@
         <v>3.2</v>
       </c>
       <c r="N218">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="O218">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="P218">
         <v>1.44</v>
@@ -25547,13 +25547,13 @@
         <v>566</v>
       </c>
       <c r="G220">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="H220">
+        <v>3.5</v>
+      </c>
+      <c r="I220">
         <v>3.3</v>
-      </c>
-      <c r="I220">
-        <v>3.65</v>
       </c>
       <c r="J220">
         <v>1.05</v>
@@ -25568,10 +25568,10 @@
         <v>3.5</v>
       </c>
       <c r="N220">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O220">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="P220">
         <v>1.36</v>
@@ -25654,13 +25654,13 @@
         <v>567</v>
       </c>
       <c r="G221">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="H221">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I221">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J221">
         <v>1.02</v>
@@ -25675,10 +25675,10 @@
         <v>4.2</v>
       </c>
       <c r="N221">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="O221">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="P221">
         <v>1.33</v>
@@ -25761,13 +25761,13 @@
         <v>568</v>
       </c>
       <c r="G222">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="H222">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I222">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="J222">
         <v>1.02</v>
@@ -25782,10 +25782,10 @@
         <v>4.41</v>
       </c>
       <c r="N222">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="O222">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="P222">
         <v>1.33</v>
@@ -25868,13 +25868,13 @@
         <v>569</v>
       </c>
       <c r="G223">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="H223">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I223">
-        <v>4.15</v>
+        <v>3.3</v>
       </c>
       <c r="J223">
         <v>1.03</v>
@@ -25889,10 +25889,10 @@
         <v>4.64</v>
       </c>
       <c r="N223">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="O223">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="P223">
         <v>1.3</v>
@@ -25975,13 +25975,13 @@
         <v>570</v>
       </c>
       <c r="G224">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="H224">
         <v>3.65</v>
       </c>
       <c r="I224">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="J224">
         <v>1.02</v>
@@ -25996,10 +25996,10 @@
         <v>4.25</v>
       </c>
       <c r="N224">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="O224">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="P224">
         <v>1.3</v>
